--- a/ガレージ設計書.xlsx
+++ b/ガレージ設計書.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="20475" windowHeight="10755"/>
@@ -9,17 +9,20 @@
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="改版履歴" sheetId="2" r:id="rId2"/>
-    <sheet name="TBD一覧" sheetId="4" r:id="rId3"/>
+    <sheet name="やることリスト" sheetId="4" r:id="rId3"/>
     <sheet name="概要" sheetId="5" r:id="rId4"/>
     <sheet name="ガレージイン攻略" sheetId="3" r:id="rId5"/>
+    <sheet name="方針" sheetId="9" r:id="rId6"/>
+    <sheet name="日程感" sheetId="10" r:id="rId7"/>
+    <sheet name="ステートマシン" sheetId="6" r:id="rId8"/>
+    <sheet name="フローチャート" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -102,26 +105,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TBD内容</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記載者</t>
     <rPh sb="0" eb="3">
       <t>キサイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TBD解除時期</t>
-    <rPh sb="3" eb="5">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,12 +218,447 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試走会後</t>
+    <rPh sb="0" eb="2">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲1
+最後のグレー検知からガレージインまでの時間
+試走会で距離を測り、確認する必要有</t>
+    <rPh sb="3" eb="5">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やることリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解除時期</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲2
+ライントレースチームにグレー検知の回数をカウントしてもらい、最後のグレー検知時にガレージチームの関数を呼び出してもらう必要有</t>
+    <rPh sb="17" eb="19">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載日付</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋口君江口君</t>
+    <rPh sb="0" eb="3">
+      <t>ヒグチクン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エグチクン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流用できるのであれば、既存のコード（過去のロボコンソースを含む）を流用改造して実装する。</t>
+    <rPh sb="0" eb="2">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガレージ機能開始から停止までは、暫定で時間管理で行うこととする。</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計書作成（ざっくりだけど）</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋口/江口</t>
+    <rPh sb="0" eb="2">
+      <t>ヒグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～2017/6/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所要で不在</t>
+    <rPh sb="0" eb="2">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～2017/7/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋口江口</t>
+    <rPh sb="0" eb="2">
+      <t>ヒグチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～試走会</t>
+    <rPh sb="1" eb="3">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードレビュー　実機確認（中川完成できてなかったら、残りを書いてほしい）</t>
+    <rPh sb="8" eb="10">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試走会</t>
+    <rPh sb="0" eb="2">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計書修正、改良。　過去ソースを手に入れてほしい。　出来たらソースも</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード作る。きつそうならヘルプ投げます。（平日忙しくてキツイ気がする）</t>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘイジツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イソガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アソシエイト研修で不在（稲城にいる 8:30-17:30)</t>
+    <rPh sb="6" eb="8">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグがあれば、バグ修正</t>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出用設計書の作成（このエクセルの体裁を整える感じで）</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイサイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後のグレー検知からの距離を測る</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[[方針]シート[日程感]シート[ステートマシン]シート[フローチャート]シート作成
+[やることリスト]更新</t>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一昨年のコードを貰う。
+流用改造できるのであれば、それをベースに実装したい。
+貰えないなんてことはきっとないはず。
+先輩たちに限って渡さないとかいう意地悪なんてしないよ</t>
+    <rPh sb="0" eb="3">
+      <t>オトトシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>センパイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>イジワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,6 +779,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -369,6 +793,11 @@
       <color rgb="FF33CC33"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1113,8 +1542,2600 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="円/楕円 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="5476875"/>
+          <a:ext cx="561975" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 結合子 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="1809750"/>
+          <a:ext cx="323850" cy="396437"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1638300"/>
+          <a:ext cx="1895475" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>entry/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>do/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="1638300"/>
+          <a:ext cx="1895475" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グレー検知</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>entry/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グレー検知</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268288</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230188</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5043488" y="-400050"/>
+          <a:ext cx="12700" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="2005013"/>
+          <a:ext cx="2181225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1304925" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="2105025"/>
+          <a:ext cx="1304925" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グレー検知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1790700" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="1028700"/>
+          <a:ext cx="1790700" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グレー検知</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回目、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="3009900"/>
+          <a:ext cx="1895475" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ガレージイン動作開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>entry/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>do/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>減速しながら前進</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="2371725"/>
+          <a:ext cx="9525" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2743201" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258049" y="2552700"/>
+          <a:ext cx="2743201" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グレー検知</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1371600" y="2005013"/>
+          <a:ext cx="685800" cy="2956"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート : 結合子 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6891337" y="5543550"/>
+          <a:ext cx="361950" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7081838" y="3924300"/>
+          <a:ext cx="4762" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形吹き出し 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="295275"/>
+          <a:ext cx="1828800" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -98106"/>
+            <a:gd name="adj2" fmla="val 58088"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ガレージ以外の難所時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2743201" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="3971925"/>
+          <a:ext cx="2743201" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>秒経過</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ガレージに入る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="4562475"/>
+          <a:ext cx="1895475" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>倒立動作</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>entry/x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>秒経過</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>exit/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>倒立動作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7081838" y="5295900"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="四角形吹き出し 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229724" y="3286125"/>
+          <a:ext cx="2257425" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -98106"/>
+            <a:gd name="adj2" fmla="val 58088"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グレー検知</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回目からガレージまでの距離に応じた時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>やることリスト▲</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="四角形吹き出し 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3181350"/>
+          <a:ext cx="2257425" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 122569"/>
+            <a:gd name="adj2" fmla="val -125736"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレースチームとの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I/F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▲</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="2438400"/>
+          <a:ext cx="2514600" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形吹き出し 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="5257800"/>
+          <a:ext cx="2257425" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 122569"/>
+            <a:gd name="adj2" fmla="val -125736"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ガレージチーム担当</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート : 端子 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="609600"/>
+          <a:ext cx="1457325" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1514476"/>
+          <a:ext cx="2676525" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース時の速度を低速にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライントレース時の半分ぐらい？）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3471863" y="981075"/>
+          <a:ext cx="9525" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート : 判断 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="2628899"/>
+          <a:ext cx="3047999" cy="1466851"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>時間計測開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>規定時間でループから抜ける</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3481388" y="2009776"/>
+          <a:ext cx="14287" cy="619123"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3514726" y="2314577"/>
+          <a:ext cx="1504948" cy="1047748"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15190"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="4143375"/>
+          <a:ext cx="1857375" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>計測終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="4752975"/>
+          <a:ext cx="2676525" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　　　走行停止</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3481388" y="4095750"/>
+          <a:ext cx="14287" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形吹き出し 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553074" y="1876424"/>
+          <a:ext cx="3038475" cy="3019426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69217"/>
+            <a:gd name="adj2" fmla="val -47728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定期処理で走っている？ので、定期処理の速度情報をグローバル変数にして、ガレージ動作開始時に速度情報を半分にする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（ガレージ機能としては走行させない）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ガレージ動作前に動いていた走行処理を止めて、ガレージ機能として走行させる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>はグローバル変数を変えるだけでオッケー。ただ、他チームと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I/F</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>調整必要</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>はデバッグが大変そう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3462338" y="5248275"/>
+          <a:ext cx="19050" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="5886450"/>
+          <a:ext cx="2676525" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　　倒立制御</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形吹き出し 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="6191250"/>
+          <a:ext cx="3324225" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69217"/>
+            <a:gd name="adj2" fmla="val -47728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>既存の倒立制御があると思うのでそれを流用？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なければ、一昨年のコードがあればそれを流用しよう。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>くれないとかいう意地悪なことされなければ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="64" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3462338" y="6381750"/>
+          <a:ext cx="19050" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="フローチャート : 端子 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="7200900"/>
+          <a:ext cx="1457325" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>END</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="四角形吹き出し 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="5153025"/>
+          <a:ext cx="3038475" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69217"/>
+            <a:gd name="adj2" fmla="val -47728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>既存の倒立制御があると思うのでそれを流用？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1188,6 +4209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1222,6 +4244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1397,17 +4420,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +4445,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1435,7 +4458,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1448,7 +4471,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1461,7 +4484,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1474,7 +4497,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1487,7 +4510,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1500,7 +4523,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1513,7 +4536,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1526,7 +4549,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1539,7 +4562,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1552,7 +4575,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1565,7 +4588,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1578,7 +4601,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1591,7 +4614,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1604,7 +4627,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1617,19 +4640,19 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="72" customHeight="1">
+    <row r="33" spans="11:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K33" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K34" s="5">
-        <v>42882</v>
+        <v>42910</v>
       </c>
     </row>
   </sheetData>
@@ -1642,25 +4665,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>0.01</v>
       </c>
@@ -1688,109 +4713,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1804,177 +4837,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
-        <v>TBD一覧</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>やることリスト</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42910</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1984,121 +5065,123 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>概要</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ガレージイン攻略</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>3</v>
       </c>
@@ -2106,7 +5189,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -2114,7 +5197,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>5</v>
       </c>
@@ -2122,7 +5205,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>6</v>
       </c>
@@ -2130,7 +5213,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <v>7</v>
       </c>
@@ -2138,7 +5221,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <v>8</v>
       </c>
@@ -2146,7 +5229,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>9</v>
       </c>
@@ -2154,7 +5237,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="2">
         <v>10</v>
       </c>
@@ -2162,7 +5245,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <v>11</v>
       </c>
@@ -2170,7 +5253,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>12</v>
       </c>
@@ -2178,13 +5261,220 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>13</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>方針</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>日程感</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="8">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="8">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>ステートマシン</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
+        <v>フローチャート</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ガレージ設計書.xlsx
+++ b/ガレージ設計書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20475" windowHeight="10755"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20475" windowHeight="10755" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,12 @@
     <sheet name="ステートマシン" sheetId="6" r:id="rId8"/>
     <sheet name="フローチャート" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
-  <si>
-    <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>変更概要</t>
     <rPh sb="0" eb="2">
@@ -212,13 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガレージインを実現する</t>
-    <rPh sb="7" eb="9">
-      <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中川</t>
     <rPh sb="0" eb="2">
       <t>ナカガワ</t>
@@ -351,31 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>流用できるのであれば、既存のコード（過去のロボコンソースを含む）を流用改造して実装する。</t>
-    <rPh sb="0" eb="2">
-      <t>リュウヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>リュウヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カイゾウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガレージ機能開始から停止までは、暫定で時間管理で行うこととする。</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -460,28 +424,6 @@
   </si>
   <si>
     <t>みんな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コードレビュー　実機確認（中川完成できてなかったら、残りを書いてほしい）</t>
-    <rPh sb="8" eb="10">
-      <t>ジッキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナカガワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -653,12 +595,255 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ガレージに入って規約時間止まること</t>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレーを検知して、ガレージまでの時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;スピードは固定である必要がある</t>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードを切り替えて、ライントレースせずに走る(?</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★これってなんでしたっけ？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★これであってましたっけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★モードを切り替えて、ライントレースせずに走る(?</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- グレー部分からいきなり速度を半分にすると</t>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ロスタイムが大きい</t>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　&gt;一定距離進んでから速度を落とした方がよい(?</t>
+    <rPh sb="3" eb="5">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-sanmpleから流用可(?</t>
+    <rPh sb="11" eb="13">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- 一昨年のコードは使えないものとする</t>
+    <rPh sb="3" eb="6">
+      <t>オトトシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　&gt;API,構造,ロボの性能が異なる為使えない</t>
+    <rPh sb="7" eb="9">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- グローバル変数は直接いじるのは一般的によくない！</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>イッパンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　&gt;APIを提供してもらおう！</t>
+    <rPh sb="7" eb="9">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- 速度情報いきなり半分だとコケそう。</t>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　&gt;徐々に遅くしていく(? 実動作で要確認。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- 徐々に遅くすると、時間計測がややこしい</t>
+    <rPh sb="3" eb="5">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- 時間計測で停止にした理由</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &gt;実装はできるのか</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +878,14 @@
     <font>
       <sz val="36"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -754,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,10 +969,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4135,7 +4334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4209,7 +4408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4244,7 +4442,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4420,237 +4617,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K32" s="2" t="s">
+    </row>
+    <row r="33" spans="11:11" ht="72" customHeight="1">
+      <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:11">
       <c r="K34" s="5">
         <v>42910</v>
       </c>
@@ -4660,170 +4869,180 @@
     <mergeCell ref="A13:K28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="63.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="2">
         <v>0.01</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
         <v>42882</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27">
       <c r="B6" s="2">
         <v>0.02</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5">
         <v>42910</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4832,104 +5051,106 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.375" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>やることリスト</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5">
         <v>42910</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
         <v>42910</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="81">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5">
         <v>42910</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4937,7 +5158,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4945,7 +5166,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4953,15 +5174,17 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4969,7 +5192,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4977,7 +5200,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4985,7 +5208,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4993,7 +5216,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5001,23 +5224,30 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5025,7 +5255,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5033,7 +5263,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5041,7 +5271,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5049,7 +5279,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5060,33 +5290,51 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>概要</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5097,91 +5345,119 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ガレージイン攻略</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="2">
         <v>3</v>
       </c>
@@ -5189,7 +5465,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -5197,7 +5473,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="2">
         <v>5</v>
       </c>
@@ -5205,7 +5481,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5">
       <c r="B39" s="2">
         <v>6</v>
       </c>
@@ -5213,7 +5489,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5">
       <c r="B40" s="2">
         <v>7</v>
       </c>
@@ -5221,7 +5497,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="2">
         <v>8</v>
       </c>
@@ -5229,7 +5505,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="2">
         <v>9</v>
       </c>
@@ -5237,7 +5513,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5">
       <c r="B43" s="2">
         <v>10</v>
       </c>
@@ -5245,7 +5521,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5">
       <c r="B44" s="2">
         <v>11</v>
       </c>
@@ -5253,7 +5529,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5">
       <c r="B45" s="2">
         <v>12</v>
       </c>
@@ -5261,7 +5537,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="2">
         <v>13</v>
       </c>
@@ -5272,38 +5548,57 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>方針</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5314,122 +5609,127 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>日程感</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="7">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="8">
-        <v>42910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="9">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C27" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="8">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5440,14 +5740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>ステートマシン</v>
@@ -5456,29 +5758,96 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A1" s="4" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]", CELL("filename",A1)))</f>
         <v>フローチャート</v>
       </c>
     </row>
+    <row r="10" spans="1:14">
+      <c r="N10" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="N11" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="N13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="N14" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="N15" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="N16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14">
+      <c r="N31" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>